--- a/ACD/myetherwallet.xlsx
+++ b/ACD/myetherwallet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\source tree\ACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18647D5B-893C-4E85-9DD3-45B671EDF7D8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{2DD768AF-8C98-4610-B0EE-F248310FE055}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="myetherwallet_1.0.2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +34,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>579af6ea4e8b18d444afa89054901bc353204eb199954a376c87120d30f0aae2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秘密鍵</t>
     <rPh sb="0" eb="2">
       <t>ヒミツ</t>
@@ -48,11 +43,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>579af6ea4e8b18d444afa89054901bc353204eb199954a376c87120d30f0aae2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +132,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFC5020-B1D9-4743-8E8B-6AEBF24C358F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFC5020-B1D9-4743-8E8B-6AEBF24C358F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -151,6 +150,44 @@
         <a:xfrm>
           <a:off x="670560" y="892628"/>
           <a:ext cx="8147748" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217262</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>16738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="4898571"/>
+          <a:ext cx="14504762" cy="7609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -458,16 +495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019FDD73-7E49-4D77-B9FD-230455F0D18E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -475,12 +512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ACD/myetherwallet.xlsx
+++ b/ACD/myetherwallet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\source tree\ACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Documents\SourceTree\ACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF5E8C3-6B37-435C-8F52-CA681D4DC0C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="myetherwallet_1.0.2" sheetId="1" r:id="rId1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +133,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFC5020-B1D9-4743-8E8B-6AEBF24C358F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -173,7 +174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -495,16 +502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -523,6 +530,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>